--- a/Sankar Action Items.xlsx
+++ b/Sankar Action Items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sankar S\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sankar S\Desktop\Sankar Action\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F120086-E5D9-4DD7-A7F9-6F40E3EF90CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47180477-0F84-4AC3-B7BF-E3815DD83903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Capacitor Design</t>
   </si>
@@ -55,16 +55,29 @@
   </si>
   <si>
     <t>4th July 2023</t>
+  </si>
+  <si>
+    <t>hi added</t>
+  </si>
+  <si>
+    <t>hi content added</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,10 +97,36 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -96,12 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -396,69 +438,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Sankar Action Items.xlsx
+++ b/Sankar Action Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sankar S\Desktop\Sankar Action\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47180477-0F84-4AC3-B7BF-E3815DD83903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB27DBB-4C25-471D-8CF6-09A3F2F64D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Capacitor Design</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>hi content added</t>
+  </si>
+  <si>
+    <t>added</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -143,7 +146,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,8 +510,13 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Sankar Action Items.xlsx
+++ b/Sankar Action Items.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sankar S\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F120086-E5D9-4DD7-A7F9-6F40E3EF90CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Action Item" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Capacitor Design</t>
   </si>
@@ -55,12 +49,15 @@
   </si>
   <si>
     <t>4th July 2023</t>
+  </si>
+  <si>
+    <t>sdfasdfsad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,28 +371,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -406,7 +403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -415,7 +412,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -424,7 +421,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -433,7 +430,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -442,7 +439,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -451,7 +448,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -459,6 +456,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Sankar Action Items.xlsx
+++ b/Sankar Action Items.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sankar S\Desktop\Sankar Action\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB27DBB-4C25-471D-8CF6-09A3F2F64D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Action Item" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Capacitor Design</t>
   </si>
@@ -55,21 +49,12 @@
   </si>
   <si>
     <t>4th July 2023</t>
-  </si>
-  <si>
-    <t>hi added</t>
-  </si>
-  <si>
-    <t>hi content added</t>
-  </si>
-  <si>
-    <t>added</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,28 +403,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -450,7 +436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +445,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -468,7 +454,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -477,7 +463,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -486,8 +472,8 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -495,7 +481,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -504,21 +490,13 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:C7"/>
